--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceSixColumns.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceSixColumns.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="360" windowWidth="14940" windowHeight="8985"/>
@@ -90,12 +90,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -103,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEF3F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,31 +159,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FFC40087"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFC40087"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color theme="0"/>
+        <color theme="8" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -271,13 +269,7 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +284,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -301,35 +299,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFD9FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF993366"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF993366"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF993366"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF993366"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -357,13 +327,6 @@
           <color rgb="FF993366"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -403,13 +366,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>18460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:rowOff>17257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -432,8 +395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="202407" y="0"/>
-          <a:ext cx="12418218" cy="773906"/>
+          <a:off x="202407" y="18460"/>
+          <a:ext cx="12418218" cy="736985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,7 +783,7 @@
   <dimension ref="A1:O1061"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1 E8:E1048576 E5:E6 G1 G8:G1048576 G5:G6 I1 I8:I1048576 I5:I6 K1 K8:K1048576 K5:K6 M1 M8:M1048576 M5:M6 O1 O8:O1048576 O5:O6 C8:O1060"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -856,50 +819,50 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="2:15" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="2:15" s="18" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -920,18 +883,18 @@
       <c r="C7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -17714,13 +17677,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:O1060">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>$C8=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>MATCH("*RECKITT*",$C9,0)&gt;-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$P8="PINK"</formula>
     </cfRule>
   </conditionalFormatting>
